--- a/spliced/falling/2023-03-21_15-37-37/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-37/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5047274231910706</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="B2" t="n">
-        <v>1.391398310661316</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06214189529419</v>
+        <v>0.07544185966253281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0247400421649217</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4867068827152252</v>
+        <v>0.0503963828086853</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.290605545043945</v>
+        <v>-0.0980438739061355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8316930532455444</v>
+        <v>0.0665843114256858</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.329548239707947</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3587306141853332</v>
+        <v>-0.0583376325666904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7304421067237854</v>
+        <v>0.0452040284872055</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.097558498382568</v>
+        <v>0.1351539343595504</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8232936263084412</v>
+        <v>-0.1539380401372909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2547308206558227</v>
+        <v>0.2449569702148437</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4392121136188507</v>
+        <v>0.4401284158229828</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3918700516223907</v>
+        <v>-0.2344195395708084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.5047274231910706</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5294674634933472</v>
+        <v>1.391398310661316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3912591934204101</v>
+        <v>1.06214189529419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.268614411354065</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.000597238540649</v>
+        <v>-0.4867068827152252</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.631621122360229</v>
+        <v>-1.290605545043945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.631926536560059</v>
+        <v>0.8316930532455444</v>
       </c>
       <c r="B9" t="n">
-        <v>8.462469100952148</v>
+        <v>-1.329548239707947</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6192646622657776</v>
+        <v>0.3587306141853332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.297935962677002</v>
+        <v>0.7304421067237854</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3597996234893799</v>
+        <v>-2.097558498382568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7938193678855896</v>
+        <v>-0.8232936263084412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.845132052898407</v>
+        <v>0.2547308206558227</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3094032406806946</v>
+        <v>-0.4392121136188507</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9367618560791016</v>
+        <v>-0.3918700516223907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.232115149497986</v>
+        <v>0.09239336848258969</v>
       </c>
       <c r="B12" t="n">
-        <v>0.111024759709835</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7185302376747131</v>
+        <v>0.3912591934204101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2264782935380935</v>
+        <v>-1.268614411354065</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9043859839439392</v>
+        <v>-1.000597238540649</v>
       </c>
       <c r="C13" t="n">
-        <v>1.454012036323547</v>
+        <v>-1.631621122360229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5639813542366028</v>
+        <v>1.631926536560059</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6252205967903137</v>
+        <v>8.462469100952148</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7906123399734497</v>
+        <v>-0.6192646622657776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1081231459975242</v>
+        <v>-1.297935962677002</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0042760567739605</v>
+        <v>-0.3597996234893799</v>
       </c>
       <c r="C15" t="n">
-        <v>1.263422012329102</v>
+        <v>0.7938193678855896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1950187236070633</v>
+        <v>-0.845132052898407</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3927863538265228</v>
+        <v>0.3094032406806946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2987131178379059</v>
+        <v>-0.9367618560791016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1111774742603302</v>
+        <v>-1.232115149497986</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1542434692382812</v>
+        <v>0.111024759709835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3286454975605011</v>
+        <v>-0.7185302376747131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7035640478134155</v>
+        <v>-0.2264782935380935</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6233879923820496</v>
+        <v>-0.9043859839439392</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6962336897850037</v>
+        <v>1.454012036323547</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2559525370597839</v>
+        <v>0.5639813542366028</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1485929638147354</v>
+        <v>0.6252205967903137</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1579086631536483</v>
+        <v>-0.7906123399734497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0140499006956815</v>
+        <v>-0.1081231459975242</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0019853119738399</v>
+        <v>0.0042760567739605</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0050396383740007</v>
+        <v>1.263422012329102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0995710343122482</v>
+        <v>0.1950187236070633</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0589484944939613</v>
+        <v>-0.3927863538265228</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2871066629886627</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0447458773851394</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0714712366461753</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0343611687421798</v>
+        <v>0.2987131178379059</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-37-37/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-37/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1327104717493057</v>
+        <v>0.41813725233078</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0224492978304624</v>
+        <v>-0.3617849349975586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07544185966253281</v>
+        <v>0.7021896243095398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0704022198915481</v>
+        <v>0.2964223623275757</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0503963828086853</v>
+        <v>0.0287106670439243</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0980438739061355</v>
+        <v>0.1348485052585601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0665843114256858</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0959058403968811</v>
+        <v>0.0493273697793483</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0583376325666904</v>
+        <v>0.1067487001419067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0452040284872055</v>
+        <v>-0.0705549344420433</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1351539343595504</v>
+        <v>-0.0940732508897781</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1539380401372909</v>
+        <v>-0.0430659987032413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2449569702148437</v>
+        <v>0.0039706239476799</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4401284158229828</v>
+        <v>0.1137736514210701</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2344195395708084</v>
+        <v>0.0995710343122482</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5047274231910706</v>
+        <v>0.0445931628346443</v>
       </c>
       <c r="B7" t="n">
-        <v>1.391398310661316</v>
+        <v>0.0633772686123848</v>
       </c>
       <c r="C7" t="n">
-        <v>1.06214189529419</v>
+        <v>0.0119118718430399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0247400421649217</v>
+        <v>-0.1004873365163803</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4867068827152252</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.290605545043945</v>
+        <v>0.012980886735022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8316930532455444</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.329548239707947</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3587306141853332</v>
+        <v>0.07544185966253281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7304421067237854</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.097558498382568</v>
+        <v>0.0503963828086853</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8232936263084412</v>
+        <v>-0.0980438739061355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2547308206558227</v>
+        <v>0.0665843114256858</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4392121136188507</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3918700516223907</v>
+        <v>-0.0583376325666904</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.0452040284872055</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5294674634933472</v>
+        <v>0.1351539343595504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3912591934204101</v>
+        <v>-0.1539380401372909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.268614411354065</v>
+        <v>0.2449569702148437</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.000597238540649</v>
+        <v>0.4401284158229828</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.631621122360229</v>
+        <v>-0.2344195395708084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.631926536560059</v>
+        <v>0.5047274231910706</v>
       </c>
       <c r="B14" t="n">
-        <v>8.462469100952148</v>
+        <v>1.391398310661316</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6192646622657776</v>
+        <v>1.06214189529419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.297935962677002</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3597996234893799</v>
+        <v>-0.4867068827152252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7938193678855896</v>
+        <v>-1.290605545043945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.845132052898407</v>
+        <v>0.8316930532455444</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3094032406806946</v>
+        <v>-1.329548239707947</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9367618560791016</v>
+        <v>0.3587306141853332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.232115149497986</v>
+        <v>0.7304421067237854</v>
       </c>
       <c r="B17" t="n">
-        <v>0.111024759709835</v>
+        <v>-2.097558498382568</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7185302376747131</v>
+        <v>-0.8232936263084412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2264782935380935</v>
+        <v>0.2547308206558227</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9043859839439392</v>
+        <v>-0.4392121136188507</v>
       </c>
       <c r="C18" t="n">
-        <v>1.454012036323547</v>
+        <v>-0.3918700516223907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5639813542366028</v>
+        <v>0.09239336848258969</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6252205967903137</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7906123399734497</v>
+        <v>0.3912591934204101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1081231459975242</v>
+        <v>-1.268614411354065</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0042760567739605</v>
+        <v>-1.000597238540649</v>
       </c>
       <c r="C20" t="n">
-        <v>1.263422012329102</v>
+        <v>-1.631621122360229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.631926536560059</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8.462469100952148</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6192646622657776</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.297935962677002</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3597996234893799</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7938193678855896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.845132052898407</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3094032406806946</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.9367618560791016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.232115149497986</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.111024759709835</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.7185302376747131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2264782935380935</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9043859839439392</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.454012036323547</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5639813542366028</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6252205967903137</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.7906123399734497</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1081231459975242</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0042760567739605</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.263422012329102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.1950187236070633</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-0.3927863538265228</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.2987131178379059</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1111774742603302</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1542434692382812</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3286454975605011</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.7035640478134155</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.6233879923820496</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6962336897850037</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2559525370597839</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1485929638147354</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1579086631536483</v>
       </c>
     </row>
   </sheetData>
